--- a/notebooks/flattened.xlsx
+++ b/notebooks/flattened.xlsx
@@ -376,12 +376,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ocid</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -613,12 +613,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-01-planning</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -793,12 +793,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-02-tender</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -973,12 +973,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-03-tenderAmendment</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1153,12 +1153,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-04-award</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1226,12 +1226,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-05-contract</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1268,12 +1268,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-06-implementation</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1318,7 +1318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1329,35 +1329,40 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>contracts/0/id</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>contracts/0/items/0/id</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>contracts/0/items/0/additionalClassifications/0/id</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>contracts/0/items/0/additionalClassifications/0/scheme</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>contracts/0/items/0/additionalClassifications/0/description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>contracts/0/items/0/additionalClassifications/0/uri</t>
         </is>
@@ -1366,35 +1371,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-05-contract</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-contract-01</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>45233162-2</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>CPV</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Cycle path construction work</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>http://cpv.data.ac.uk/code-45233162.html</t>
         </is>
@@ -1403,35 +1413,40 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-06-implementation</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-contract-01</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>45233162-2</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>CPV</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Cycle path construction work</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>http://cpv.data.ac.uk/code-45233162.html</t>
         </is>
@@ -1448,7 +1463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1459,70 +1474,75 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>contracts/0/id</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>contracts/0/items/0/id</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>contracts/0/items/0/description</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>contracts/0/items/0/classification/id</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>contracts/0/items/0/classification/scheme</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>contracts/0/items/0/classification/description</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>contracts/0/items/0/classification/uri</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>contracts/0/items/0/quantity</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>contracts/0/items/0/unit/id</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>contracts/0/items/0/unit/name</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>contracts/0/items/0/unit/scheme</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>contracts/0/items/0/unit/value/amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>contracts/0/items/0/unit/value/currency</t>
         </is>
@@ -1531,66 +1551,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-05-contract</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-contract-01</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Cycle lane improvements</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>45233130.0</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>CPV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Construction work for highways</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>http://cpv.data.ac.uk/code-45233130</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>8</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>SMI</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Miles</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>UNCEFACT</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>137000</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
@@ -1599,66 +1624,71 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-06-implementation</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-contract-01</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Cycle lane improvements</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>45233130.0</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>CPV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Construction work for highways</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>http://cpv.data.ac.uk/code-45233130</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>8</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>SMI</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Miles</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>UNCEFACT</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>137000</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
@@ -1675,7 +1705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,40 +1716,45 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>contracts/0/id</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>contracts/0/relatedProcesses/0/id</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>contracts/0/relatedProcesses/0/title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>contracts/0/relatedProcesses/0/relationship</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>contracts/0/relatedProcesses/0/scheme</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>contracts/0/relatedProcesses/0/identifier</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>contracts/0/relatedProcesses/0/uri</t>
         </is>
@@ -1728,40 +1763,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-06-implementation</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-contract-01</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Tender for the hire of works barriers and signage</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>subContract</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>ocid</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00002</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>http://www.example.com/openContracting/ocds-213czf-000-00002</t>
         </is>
@@ -1778,7 +1818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1789,60 +1829,65 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>contracts/0/id</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>contracts/0/awardID</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>contracts/0/title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>contracts/0/description</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>contracts/0/status</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>contracts/0/period/startDate</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>contracts/0/period/endDate</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>contracts/0/period/maxExtentDate</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>contracts/0/value/amount</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>contracts/0/value/currency</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>contracts/0/dateSigned</t>
         </is>
@@ -1851,58 +1896,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-05-contract</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-contract-01</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-award-01</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Contract to build new cycle lanes in the centre of town.</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>A contract has been signed between the Council and AnyCorp Ltd for construction of new cycle lanes in the centre of town.</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>2010-07-01T00:00:00Z</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>2011-06-30T23:59:00Z</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>2011-12-31T23:59:00Z</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>11000000</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2010-06-10T14:23:12Z</t>
         </is>
@@ -1911,58 +1961,63 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-06-implementation</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-contract-01</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-award-01</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Contract to build new cycle lanes in the centre of town.</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>A contract has been signed between the Council and AnyCorp Ltd for construction of new cycle lanes in the centre of town.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>2010-07-01T00:00:00Z</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>2011-06-30T23:59:00Z</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>2011-12-31T23:59:00Z</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>11000000</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2010-06-10T14:23:12Z</t>
         </is>
@@ -1979,7 +2034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1990,85 +2045,90 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>parties/0/id</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>parties/0/name</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>parties/0/roles</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>parties/0/identifier/id</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>parties/0/identifier/scheme</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>parties/0/identifier/legalName</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>parties/0/address/streetAddress</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>parties/0/address/locality</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>parties/0/address/region</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>parties/0/address/postalCode</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>parties/0/address/countryName</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>parties/0/contactPoint/name</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>parties/0/contactPoint/email</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>parties/0/contactPoint/telephone</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>parties/0/contactPoint/faxNumber</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>parties/0/contactPoint/url</t>
         </is>
@@ -2077,85 +2137,90 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-01-planning</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>GB-LAC-E09000003</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>London Borough of Barnet</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>buyer</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>E09000003</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>GB-LAC</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>London Borough of Barnet</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>4, North London Business Park, Oakleigh Rd S</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>London</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>London</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>N11 1NP</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Procurement Team</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>procurement-team@example.com</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>01234 345 346</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>01234 345 345</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>http://example.com/contact/</t>
         </is>
@@ -2164,85 +2229,90 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-02-tender</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>GB-LAC-E09000003</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>London Borough of Barnet</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>buyer</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>E09000003</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>GB-LAC</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>London Borough of Barnet</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>4, North London Business Park, Oakleigh Rd S</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>London</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>London</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>N11 1NP</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Procurement Team</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>procurement-team@example.com</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>01234 345 346</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>01234 345 345</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>http://example.com/contact/</t>
         </is>
@@ -2251,85 +2321,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-03-tenderAmendment</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>GB-LAC-E09000003</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>London Borough of Barnet</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>buyer</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>E09000003</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>GB-LAC</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>London Borough of Barnet</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>4, North London Business Park, Oakleigh Rd S</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>London</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>London</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>N11 1NP</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Procurement Team</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>procurement-team@example.com</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>01234 345 346</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>01234 345 345</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>http://example.com/contact/</t>
         </is>
@@ -2338,85 +2413,90 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-04-award</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>GB-LAC-E09000003</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>London Borough of Barnet</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>buyer</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>E09000003</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>GB-LAC</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>London Borough of Barnet</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>4, North London Business Park, Oakleigh Rd S</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>London</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>London</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>N11 1NP</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>Procurement Team</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>procurement-team@example.com</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>01234 345 346</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>01234 345 345</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>http://example.com/contact/</t>
         </is>
@@ -2425,85 +2505,90 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-04-award</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>GB-COH-11111111</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>AnyCorp Cycle Provision</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>supplier</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>11111111.0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>GB-COH</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>AnyCorp Ltd</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>1 Anytown Lane</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Anytown</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Any County</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>AA1 1AA</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>Contracts Team</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>contracts@anycorp.example</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>11111 111 111</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>11111 111 112</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>http://www.anycorp.example</t>
         </is>
@@ -2512,85 +2597,90 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-04-award</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>GB-COH-22222222</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Beta Corp Construction</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>tenderer</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>22222222.0</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>GB-COH</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Beta Corp Ltd</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>2 Main Road</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Beta City</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Beta County</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>BB2 2BB</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>Bids Team</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>bids@betacorp.example</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>22222 222 222</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>22222 222 223</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>http://www.betacorp.example</t>
         </is>
@@ -2599,85 +2689,90 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-05-contract</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>GB-LAC-E09000003</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>London Borough of Barnet</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>buyer</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>E09000003</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>GB-LAC</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>London Borough of Barnet</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>4, North London Business Park, Oakleigh Rd S</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>London</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>London</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>N11 1NP</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>Procurement Team</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>procurement-team@example.com</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>01234 345 346</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>01234 345 345</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>http://example.com/contact/</t>
         </is>
@@ -2686,85 +2781,90 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-06-implementation</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>GB-LAC-E09000003</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>London Borough of Barnet</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>buyer</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>E09000003</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>GB-LAC</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>London Borough of Barnet</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>4, North London Business Park, Oakleigh Rd S</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>London</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>London</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>N11 1NP</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>Procurement Team</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>procurement-team@example.com</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>01234 345 346</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>01234 345 345</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>http://example.com/contact/</t>
         </is>
@@ -2776,6 +2876,181 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>planning/documents/0/id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>planning/documents/0/documentType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>planning/documents/0/title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>planning/documents/0/description</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>planning/documents/0/url</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>planning/documents/0/datePublished</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>planning/documents/0/format</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>planning/documents/0/language</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-01-planning</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>procurementPlan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Area Wide Cycle Improvements - Procurement Plan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>The overall strategic framework for procurement to enhance cycle provision.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>http://example.com/opencontracting/documents/planning/highways/procurementPlan.pdf</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2009-01-05T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>application/pdf</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-01-planning</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>needsAssessment</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Cycle provision - Needs Assessment</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Needs assessment for provision for cyclists in the centre of town.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>http://example.com/opencontracting/documents/ocds-213czf-000-00001/needsAssessment.pdf</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2009-01-15T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>application/pdf</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2792,279 +3067,134 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>planning/documents/0/id</t>
-        </is>
-      </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>planning/documents/0/documentType</t>
+          <t>planning/milestones/0/id</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>planning/documents/0/title</t>
+          <t>planning/milestones/0/type</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>planning/documents/0/description</t>
+          <t>planning/milestones/0/title</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>planning/documents/0/url</t>
+          <t>planning/milestones/0/description</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>planning/documents/0/datePublished</t>
+          <t>planning/milestones/0/status</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>planning/documents/0/format</t>
+          <t>planning/milestones/0/dueDate</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>planning/documents/0/language</t>
+          <t>planning/milestones/0/dateMet</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-01-planning</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>procurementPlan</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Area Wide Cycle Improvements - Procurement Plan</t>
+          <t>preProcurement</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The overall strategic framework for procurement to enhance cycle provision.</t>
+          <t>Strategic outline procurement plan approval</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>http://example.com/opencontracting/documents/planning/highways/procurementPlan.pdf</t>
+          <t>Approval of the strategic outline procurement plan by the procurement steering group</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2009-01-05T00:00:00Z</t>
+          <t>met</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>application/pdf</t>
+          <t>2009-03-14T17:00:00Z</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>2009-03-14T17:00:00Z</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-01-planning</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>needsAssessment</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cycle provision - Needs Assessment</t>
+          <t>engagement</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Needs assessment for provision for cyclists in the centre of town.</t>
+          <t>Public consultation</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>http://example.com/opencontracting/documents/ocds-213czf-000-00001/needsAssessment.pdf</t>
+          <t>A public consultation on the proposed cycle lane will be held at the council offices</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2009-01-15T00:00:00Z</t>
+          <t>scheduled</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
-        <is>
-          <t>application/pdf</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>planning/milestones/0/id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>planning/milestones/0/type</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>planning/milestones/0/title</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>planning/milestones/0/description</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>planning/milestones/0/status</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>planning/milestones/0/dueDate</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>planning/milestones/0/dateMet</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-01-planning</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>preProcurement</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Strategic outline procurement plan approval</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Approval of the strategic outline procurement plan by the procurement steering group</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2009-03-14T17:00:00Z</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2009-03-14T17:00:00Z</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-01-planning</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>engagement</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Public consultation</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>A public consultation on the proposed cycle lane will be held at the council offices</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>2009-05-01T09:00:00Z</t>
         </is>
@@ -3081,7 +3211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3092,40 +3222,45 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>tender/id</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>tender/amendments/0/id</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>tender/amendments/0/date</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>tender/amendments/0/rationale</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>tender/amendments/0/description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>tender/amendments/0/amendsReleaseID</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>tender/amendments/0/releaseID</t>
         </is>
@@ -3134,40 +3269,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-03-tenderAmendment</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-01-tender</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2010-03-20T09:45:00Z</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The tender period has been extended in accordance with council guidelines</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>The closing date for tender submissions has been extended to 2017-04-08</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-02-tender</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-03-tenderAmendment</t>
         </is>
@@ -3184,7 +3324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,50 +3335,55 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>tender/id</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>tender/documents/0/id</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>tender/documents/0/documentType</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>tender/documents/0/title</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>tender/documents/0/description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>tender/documents/0/url</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>tender/documents/0/datePublished</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>tender/documents/0/format</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>tender/documents/0/language</t>
         </is>
@@ -3247,50 +3392,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-01-planning</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-01-planning</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>x_consultationDocument</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Consultation on cycle provision</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>A consultation document inviting citizen input into cycle provision.</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>http://example.com/consultations/cycle-provision/</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>2010-02-15T00:00:00Z</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>text/html</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
@@ -3299,45 +3449,50 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-01-planning</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-01-planning</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>x_map</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Map of affected areas</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>A map showing areas affected by the planned highway updates. Available from local libraries.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>2010-02-15T00:00:00Z</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>offline/print</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
@@ -3346,50 +3501,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-02-tender</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-01-tender</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>tenderNotice</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Tender Notice</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Official tender notice.</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>http://example.com/tender-notices/ocds-213czf-000-00001-01.html</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>2010-03-01T09:00:00Z</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>text/html</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
@@ -3398,50 +3558,55 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-03-tenderAmendment</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-01-tender</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>tenderNotice</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Tender Notice</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Official tender notice.</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>http://example.com/tender-notices/ocds-213czf-000-00001-01.html</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>2010-03-01T09:00:00Z</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>text/html</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
@@ -3450,50 +3615,55 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-03-tenderAmendment</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-01-tender</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>6.0</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>clarifications</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Enquiry Responses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Responses to enquiries asked by interested parties.</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>http://example.com/enquiry-response/ocds-213czf-000-00001-01.html</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>2010-03-20T11:30:15Z</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>text/html</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
@@ -3510,7 +3680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3521,35 +3691,40 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>tender/id</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>tender/items/0/id</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>tender/items/0/additionalClassifications/0/id</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>tender/items/0/additionalClassifications/0/scheme</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>tender/items/0/additionalClassifications/0/description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>tender/items/0/additionalClassifications/0/uri</t>
         </is>
@@ -3558,35 +3733,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-01-planning</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-01-planning</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>45233162-2</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>CPV</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Cycle path construction work</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>http://cpv.data.ac.uk/code-45233162.html</t>
         </is>
@@ -3595,35 +3775,40 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-02-tender</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-01-tender</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>45233162-2</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>CPV</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Cycle path construction work</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>http://cpv.data.ac.uk/code-45233162.html</t>
         </is>
@@ -3632,35 +3817,40 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-03-tenderAmendment</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-01-tender</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>45233162-2</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>CPV</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Cycle path construction work</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>http://cpv.data.ac.uk/code-45233162.html</t>
         </is>
@@ -3672,1182 +3862,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>awards/0/id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>awards/0/documents/0/id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>awards/0/documents/0/documentType</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>awards/0/documents/0/title</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>awards/0/documents/0/description</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>awards/0/documents/0/url</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>awards/0/documents/0/datePublished</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>awards/0/documents/0/format</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>awards/0/documents/0/language</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-04-award</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-award-01</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>awardNotice</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Award notice</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Award of contract to build new cycle lanes in the centre of town to AnyCorp Ltd.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>http://example.com/tender-notices/ocds-213czf-000-00001-04.html</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2010-05-10T09:30:00Z</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>text/html</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-05-contract</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-award-01</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>awardNotice</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Award notice</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Award of contract to build new cycle lanes in the centre of town to AnyCorp Ltd.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>http://example.com/tender-notices/ocds-213czf-000-00001-04.html</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2010-05-10T10:30:00Z</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>text/html</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-06-implementation</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-award-01</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>awardNotice</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Award notice</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Award of contract to build new cycle lanes in the centre of town to AnyCorp Ltd.</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>http://example.com/tender-notices/ocds-213czf-000-00001-04.html</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2010-05-10T10:30:00Z</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>text/html</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>tender/id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>tender/items/0/id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>tender/items/0/description</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>tender/items/0/classification/id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>tender/items/0/classification/scheme</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>tender/items/0/classification/description</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>tender/items/0/classification/uri</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>tender/items/0/quantity</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>tender/items/0/unit/id</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>tender/items/0/unit/name</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>tender/items/0/unit/scheme</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>tender/items/0/unit/value/amount</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>tender/items/0/unit/value/currency</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-01-planning</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-01-planning</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Cycle lane improvements</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>45233130.0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CPV</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Construction work for highways</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>http://cpv.data.ac.uk/code-45233130</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>SMI</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Miles</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>UNCEFACT</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>100000</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-02-tender</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-01-tender</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Cycle lane improvements</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>45233130.0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CPV</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Construction work for highways</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>http://cpv.data.ac.uk/code-45233130</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>SMI</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Miles</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>UNCEFACT</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>120000</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-03-tenderAmendment</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-01-tender</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Cycle lane improvements</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>45233130.0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CPV</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Construction work for highways</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>http://cpv.data.ac.uk/code-45233130</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>SMI</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Miles</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>UNCEFACT</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>120000</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>tender/id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>tender/tenderers/0/id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>tender/tenderers/0/name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-04-award</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-01-tender</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>GB-COH-11111111</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>AnyCorp Cycle Provision</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-04-award</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-01-tender</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>GB-COH-22222222</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Beta Corp Construction</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>awards/0/id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>awards/0/items/0/id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>awards/0/items/0/additionalClassifications/0/id</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>awards/0/items/0/additionalClassifications/0/scheme</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>awards/0/items/0/additionalClassifications/0/description</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>awards/0/items/0/additionalClassifications/0/uri</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-04-award</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-award-01</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>45233162-2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CPV</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Cycle path construction work</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>http://cpv.data.ac.uk/code-45233162.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-05-contract</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-award-01</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>45233162-2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CPV</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cycle path construction work</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>http://cpv.data.ac.uk/code-45233162.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-06-implementation</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-award-01</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>45233162-2</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CPV</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cycle path construction work</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>http://cpv.data.ac.uk/code-45233162.html</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>awards/0/id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>awards/0/items/0/id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>awards/0/items/0/description</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>awards/0/items/0/classification/id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>awards/0/items/0/classification/scheme</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>awards/0/items/0/classification/description</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>awards/0/items/0/classification/uri</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>awards/0/items/0/quantity</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>awards/0/items/0/unit/id</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>awards/0/items/0/unit/name</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>awards/0/items/0/unit/scheme</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>awards/0/items/0/unit/value/amount</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>awards/0/items/0/unit/value/currency</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-04-award</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-award-01</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Cycle lane improvements</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>45233130.0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CPV</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Construction work for highways</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>http://cpv.data.ac.uk/code-45233130</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>8</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>SMI</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Miles</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>UNCEFACT</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>137000</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-05-contract</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-award-01</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Cycle lane improvements</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>45233130.0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CPV</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Construction work for highways</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>http://cpv.data.ac.uk/code-45233130</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>SMI</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Miles</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>UNCEFACT</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>137000</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-06-implementation</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-award-01</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Cycle lane improvements</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>45233130.0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CPV</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Construction work for highways</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>http://cpv.data.ac.uk/code-45233130</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>SMI</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Miles</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>UNCEFACT</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>137000</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>awards/0/id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>awards/0/suppliers/0/id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>awards/0/suppliers/0/name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-04-award</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-award-01</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>GB-COH-11111111</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>AnyCorp Cycle Provision</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-05-contract</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-award-01</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>GB-COH-11111111</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>AnyCorp Cycle Provision</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-06-implementation</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ocds-213czf-000-00001-award-01</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>GB-COH-11111111</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>AnyCorp Cycle Provision</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4864,220 +3878,1531 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>awards/0/id</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>awards/0/title</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>awards/0/description</t>
+          <t>awards/0/documents/0/id</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>awards/0/status</t>
+          <t>awards/0/documents/0/documentType</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>awards/0/date</t>
+          <t>awards/0/documents/0/title</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>awards/0/value/amount</t>
+          <t>awards/0/documents/0/description</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>awards/0/value/currency</t>
+          <t>awards/0/documents/0/url</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>awards/0/contractPeriod/startDate</t>
+          <t>awards/0/documents/0/datePublished</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>awards/0/contractPeriod/endDate</t>
+          <t>awards/0/documents/0/format</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>awards/0/contractPeriod/maxExtentDate</t>
+          <t>awards/0/documents/0/language</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-04-award</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-award-01</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Award of contract to build new cycle lanes in the centre of town.</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AnyCorp Ltd has been awarded the contract to build new cycle lanes in the centre of town.</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>awardNotice</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Award notice</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Award of contract to build new cycle lanes in the centre of town to AnyCorp Ltd.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>http://example.com/tender-notices/ocds-213czf-000-00001-04.html</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>2010-05-10T09:30:00Z</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2010-07-01T00:00:00Z</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2011-06-30T23:59:00Z</t>
+          <t>text/html</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2011-12-31T23:59:00Z</t>
+          <t>en</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-05-contract</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-award-01</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Award of contract to build new cycle lanes in the centre of town.</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AnyCorp Ltd has been awarded the contract to build new cycle lanes in the centre of town.</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>awardNotice</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Award notice</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Award of contract to build new cycle lanes in the centre of town to AnyCorp Ltd.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>http://example.com/tender-notices/ocds-213czf-000-00001-04.html</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>2010-05-10T10:30:00Z</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2010-07-01T00:00:00Z</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2011-06-30T23:59:00Z</t>
+          <t>text/html</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2011-12-31T23:59:00Z</t>
+          <t>en</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-06-implementation</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-award-01</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>awardNotice</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Award notice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Award of contract to build new cycle lanes in the centre of town to AnyCorp Ltd.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>http://example.com/tender-notices/ocds-213czf-000-00001-04.html</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2010-05-10T10:30:00Z</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>text/html</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tender/id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>tender/items/0/id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>tender/items/0/description</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>tender/items/0/classification/id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>tender/items/0/classification/scheme</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>tender/items/0/classification/description</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>tender/items/0/classification/uri</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>tender/items/0/quantity</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>tender/items/0/unit/id</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>tender/items/0/unit/name</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>tender/items/0/unit/scheme</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>tender/items/0/unit/value/amount</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>tender/items/0/unit/value/currency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-01-planning</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-01-planning</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Cycle lane improvements</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>45233130.0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CPV</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Construction work for highways</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>http://cpv.data.ac.uk/code-45233130</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>SMI</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Miles</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>UNCEFACT</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-02-tender</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-01-tender</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Cycle lane improvements</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>45233130.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CPV</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Construction work for highways</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>http://cpv.data.ac.uk/code-45233130</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>SMI</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Miles</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>UNCEFACT</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>120000</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001-03-tenderAmendment</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-01-tender</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Cycle lane improvements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>45233130.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CPV</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Construction work for highways</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>http://cpv.data.ac.uk/code-45233130</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>SMI</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Miles</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>UNCEFACT</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>120000</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tender/id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>tender/tenderers/0/id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>tender/tenderers/0/name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-04-award</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-01-tender</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>GB-COH-11111111</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>AnyCorp Cycle Provision</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-04-award</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-01-tender</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GB-COH-22222222</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Beta Corp Construction</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>awards/0/id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>awards/0/items/0/id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>awards/0/items/0/additionalClassifications/0/id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>awards/0/items/0/additionalClassifications/0/scheme</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>awards/0/items/0/additionalClassifications/0/description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>awards/0/items/0/additionalClassifications/0/uri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-04-award</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-award-01</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45233162-2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CPV</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Cycle path construction work</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>http://cpv.data.ac.uk/code-45233162.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-05-contract</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-award-01</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>45233162-2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CPV</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cycle path construction work</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>http://cpv.data.ac.uk/code-45233162.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-06-implementation</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001-award-01</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>45233162-2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CPV</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Cycle path construction work</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>http://cpv.data.ac.uk/code-45233162.html</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>awards/0/id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>awards/0/items/0/id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>awards/0/items/0/description</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>awards/0/items/0/classification/id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>awards/0/items/0/classification/scheme</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>awards/0/items/0/classification/description</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>awards/0/items/0/classification/uri</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>awards/0/items/0/quantity</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>awards/0/items/0/unit/id</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>awards/0/items/0/unit/name</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>awards/0/items/0/unit/scheme</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>awards/0/items/0/unit/value/amount</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>awards/0/items/0/unit/value/currency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-04-award</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-award-01</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Cycle lane improvements</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>45233130.0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CPV</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Construction work for highways</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>http://cpv.data.ac.uk/code-45233130</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>SMI</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Miles</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>UNCEFACT</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>137000</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-05-contract</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-award-01</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Cycle lane improvements</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>45233130.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CPV</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Construction work for highways</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>http://cpv.data.ac.uk/code-45233130</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>SMI</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Miles</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>UNCEFACT</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>137000</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-06-implementation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-award-01</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Cycle lane improvements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>45233130.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CPV</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Construction work for highways</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>http://cpv.data.ac.uk/code-45233130</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>SMI</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Miles</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>UNCEFACT</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>137000</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>awards/0/id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>awards/0/suppliers/0/id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>awards/0/suppliers/0/name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-04-award</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-award-01</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>GB-COH-11111111</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>AnyCorp Cycle Provision</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-05-contract</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-award-01</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GB-COH-11111111</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>AnyCorp Cycle Provision</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-06-implementation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-award-01</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GB-COH-11111111</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>AnyCorp Cycle Provision</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>awards/0/id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>awards/0/title</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>awards/0/description</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>awards/0/status</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>awards/0/date</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>awards/0/value/amount</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>awards/0/value/currency</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>awards/0/contractPeriod/startDate</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>awards/0/contractPeriod/endDate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>awards/0/contractPeriod/maxExtentDate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-04-award</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-award-01</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Award of contract to build new cycle lanes in the centre of town.</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>AnyCorp Ltd has been awarded the contract to build new cycle lanes in the centre of town.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2010-05-10T09:30:00Z</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2010-07-01T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2011-06-30T23:59:00Z</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2011-12-31T23:59:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-05-contract</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-award-01</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Award of contract to build new cycle lanes in the centre of town.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>AnyCorp Ltd has been awarded the contract to build new cycle lanes in the centre of town.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2010-05-10T10:30:00Z</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2010-07-01T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2011-06-30T23:59:00Z</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2011-12-31T23:59:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-06-implementation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ocds-213czf-000-00001-award-01</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Award of contract to build new cycle lanes in the centre of town.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>AnyCorp Ltd has been awarded the contract to build new cycle lanes in the centre of town.</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>2010-05-10T10:30:00Z</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>11000000</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>2010-07-01T00:00:00Z</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>2011-06-30T23:59:00Z</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>2011-12-31T23:59:00Z</t>
         </is>
@@ -5094,7 +5419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5105,50 +5430,55 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>contracts/0/id</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>contracts/0/documents/0/id</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>contracts/0/documents/0/documentType</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>contracts/0/documents/0/title</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>contracts/0/documents/0/description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>contracts/0/documents/0/url</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>contracts/0/documents/0/datePublished</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>contracts/0/documents/0/format</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>contracts/0/documents/0/language</t>
         </is>
@@ -5157,50 +5487,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-05-contract</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-contract-01</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>contractSigned</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Signed Contract</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>The Signed Contract for Cycle Path Construction</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>http://example.com/contracts/ocds-213czf-000-00001</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>2015-06-10T16:43:12Z</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>application/pdf</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
@@ -5217,7 +5552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5228,50 +5563,55 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>contracts/0/id</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>contracts/0/implementation/documents/0/id</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>contracts/0/implementation/documents/0/documentType</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>contracts/0/implementation/documents/0/title</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>contracts/0/implementation/documents/0/description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>contracts/0/implementation/documents/0/url</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>contracts/0/implementation/documents/0/datePublished</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>contracts/0/implementation/documents/0/format</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>contracts/0/implementation/documents/0/language</t>
         </is>
@@ -5280,50 +5620,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-06-implementation</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-contract-01</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>physicalProgressReport</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Progress report</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Physical progress report for cycle path construction</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>http://example.com/reports/ocds-213czf-000-00001/cycle-path-01.pdf</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>2010-12-15T15:34:02Z</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>application/pdf</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
@@ -5340,7 +5685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5351,60 +5696,65 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ocid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>contracts/0/id</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>contracts/0/implementation/transactions/0/id</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>contracts/0/implementation/transactions/0/source</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>contracts/0/implementation/transactions/0/date</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>contracts/0/implementation/transactions/0/value/amount</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>contracts/0/implementation/transactions/0/value/currency</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>contracts/0/implementation/transactions/0/payer/id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>contracts/0/implementation/transactions/0/payer/name</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>contracts/0/implementation/transactions/0/payee/id</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>contracts/0/implementation/transactions/0/payee/name</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>contracts/0/implementation/transactions/0/uri</t>
         </is>
@@ -5413,58 +5763,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-06-implementation</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-contract-01</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-1</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://openspending.org/uk-barnet-spending/</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2010-08-01T00:00:00Z</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>50000</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>GB-LAC-E09000003</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>London Borough of Barnet</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>GB-COH-11111111</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>AnyCorp Cycle Provision</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>https://openspending.org/uk-barnet-spending/transaction/asd9235qaghvs1059620ywhgai</t>
         </is>
@@ -5473,58 +5828,63 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>ocds-213czf-000-00001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>ocds-213czf-000-00001-06-implementation</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-contract-01</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>ocds-213czf-000-00001-2</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://openspending.org/uk-barnet-spending/</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2010-10-01T00:00:00Z</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>10000</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>GB-LAC-E09000003</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>London Borough of Barnet</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>GB-COH-11111111</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>AnyCorp Cycle Provision</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>https://openspending.org/uk-barnet-spending/transaction/asd9235qaghvs105962as0012</t>
         </is>
